--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vilis\vhbbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC47E90-AC4F-4876-9144-4A14CA50F43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EDF1C2-9506-48C9-A410-5F4A880ADE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1425" yWindow="1425" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>lohi</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Vilis</t>
+  </si>
+  <si>
+    <t>Vilniiis</t>
   </si>
 </sst>
 </file>
@@ -360,7 +363,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,6 +388,9 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/candidates.xlsx
+++ b/candidates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vilis\vhbbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EDF1C2-9506-48C9-A410-5F4A880ADE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF05DE17-0B48-4A68-80B7-76D53D90B841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1425" yWindow="1425" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,22 +27,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>lohi</t>
-  </si>
-  <si>
-    <t>geniji</t>
-  </si>
-  <si>
     <t>Andrejs</t>
   </si>
   <si>
-    <t>Toms</t>
-  </si>
-  <si>
     <t>Vilis</t>
   </si>
   <si>
-    <t>Vilniiis</t>
+    <t>7a</t>
+  </si>
+  <si>
+    <t>7b</t>
+  </si>
+  <si>
+    <t>Barons</t>
+  </si>
+  <si>
+    <t>Karlis</t>
   </si>
 </sst>
 </file>
@@ -363,33 +363,33 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
